--- a/spliced/falling/2023-03-25_18-01-55/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-55/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,199 +452,221 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.06060181622919789</v>
+        <v>0.1914996167887811</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2589603908683945</v>
+        <v>0.03030422819859344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4051430983387903</v>
+        <v>0.02057685541069637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.2129994086597282</v>
+        <v>0.1882859338884768</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3793273995751927</v>
+        <v>0.0655750582480559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01590242139671223</v>
+        <v>0.4253946024438608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5540348317312142</v>
+        <v>0.06060181622919789</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6639242237028846</v>
+        <v>0.2589603908683945</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.121634874006974</v>
+        <v>0.4051430983387903</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.05442012457743672</v>
+        <v>-0.2129994086597282</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6851783446643664</v>
+        <v>0.3793273995751927</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.266947746276855</v>
+        <v>0.01590242139671223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.690450101442949</v>
+        <v>0.5540348317312142</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1374446801517266</v>
+        <v>-0.6639242237028846</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.446953586910074</v>
+        <v>-1.121634874006974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.7898089613603607</v>
+        <v>-0.05442012457743672</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3619974125986522</v>
+        <v>-0.6851783446643664</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.304489494017943</v>
+        <v>-1.266947746276855</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.258422552243524</v>
+        <v>-1.690450101442949</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7682891954546356</v>
+        <v>0.1374446801517266</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.810219791272407</v>
+        <v>-2.446953586910074</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.04960623909921762</v>
+        <v>-0.7898089613603607</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7135171605193199</v>
+        <v>0.3619974125986522</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9448558195777682</v>
+        <v>-1.304489494017943</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.06745413115814936</v>
+        <v>0.258422552243524</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9221143800279369</v>
+        <v>0.7682891954546356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8995588318161351</v>
+        <v>-0.810219791272407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2945499300308859</v>
+        <v>0.04960623909921762</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.8846524111602638</v>
+        <v>0.7135171605193199</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1974289948525624</v>
+        <v>-0.9448558195777682</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.04833139317191015</v>
+        <v>0.06745413115814936</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1051352218441374</v>
+        <v>-0.9221143800279369</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5846644471520946</v>
+        <v>0.8995588318161351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.3716119142330205</v>
+        <v>0.2945499300308859</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.238370238438896</v>
+        <v>-0.8846524111602638</v>
       </c>
       <c r="C13" t="n">
-        <v>0.260175480790761</v>
+        <v>0.1974289948525624</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.264046503797822</v>
+        <v>-0.04833139317191015</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3259165299975353</v>
+        <v>-0.1051352218441374</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5310809301293402</v>
+        <v>0.5846644471520946</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.03510483127573347</v>
+        <v>-0.3716119142330205</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2923986199109453</v>
+        <v>-0.238370238438896</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3991871540961079</v>
+        <v>0.260175480790761</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.08346278123233626</v>
+        <v>-0.264046503797822</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1424975973432492</v>
+        <v>-0.3259165299975353</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04679758806267567</v>
+        <v>0.5310809301293402</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.07242736803448724</v>
+        <v>-0.03510483127573347</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02474668281881699</v>
+        <v>-0.2923986199109453</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.03723622056777053</v>
+        <v>0.3991871540961079</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.03090181347468638</v>
+        <v>0.08346278123233626</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04209658244381763</v>
+        <v>-0.1424975973432492</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.06578089167242437</v>
+        <v>0.04679758806267567</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>0.07242736803448724</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.02474668281881699</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.03723622056777053</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.03090181347468638</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.04209658244381763</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.06578089167242437</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>-0.0216857157647609</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B21" t="n">
         <v>0.08552113175392149</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C21" t="n">
         <v>-0.1296561509370803</v>
       </c>
     </row>

--- a/spliced/falling/2023-03-25_18-01-55/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-55/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1914996167887811</v>
+        <v>-0.06436660403446501</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03030422819859344</v>
+        <v>0.02161267820907678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02057685541069637</v>
+        <v>-0.02475332161006712</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1882859338884768</v>
+        <v>-0.002483299958681726</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0655750582480559</v>
+        <v>-0.07227465348399185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4253946024438608</v>
+        <v>-0.05542938006312945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.06060181622919789</v>
+        <v>0.05864306564604772</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2589603908683945</v>
+        <v>-0.01641368349690153</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4051430983387903</v>
+        <v>-0.03955352419744367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2129994086597282</v>
+        <v>0.0103050321340562</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3793273995751927</v>
+        <v>0.04435412786172135</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01590242139671223</v>
+        <v>0.04177123000440386</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5540348317312142</v>
+        <v>0.02360463045213534</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6639242237028846</v>
+        <v>0.01676559415848359</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.121634874006974</v>
+        <v>0.06694286187057909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.05442012457743672</v>
+        <v>0.02699094848788307</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6851783446643664</v>
+        <v>-0.01045774781833528</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.266947746276855</v>
+        <v>0.02604145086977801</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.690450101442949</v>
+        <v>-0.01472052470173514</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1374446801517266</v>
+        <v>0.001075654007170485</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.446953586910074</v>
+        <v>-0.02027806955511146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.7898089613603607</v>
+        <v>-0.0279470856260994</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3619974125986522</v>
+        <v>-0.001367806902398176</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.304489494017943</v>
+        <v>-0.02752877472211478</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.258422552243524</v>
+        <v>-0.02199114867202608</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7682891954546356</v>
+        <v>0.004966600231178349</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.810219791272407</v>
+        <v>-0.03471972080676452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.04960623909921762</v>
+        <v>-0.01893682202891156</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7135171605193199</v>
+        <v>0.0004515091119253129</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9448558195777682</v>
+        <v>0.08639095043358573</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.06745413115814936</v>
+        <v>-0.007516298443078927</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9221143800279369</v>
+        <v>0.01816660165786737</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8995588318161351</v>
+        <v>0.06252737019373024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2945499300308859</v>
+        <v>-0.01159979990157086</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.8846524111602638</v>
+        <v>0.006480483672298237</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1974289948525624</v>
+        <v>0.04596096941310422</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.04833139317191015</v>
+        <v>-0.01335271759687552</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1051352218441374</v>
+        <v>0.001062374369686679</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5846644471520946</v>
+        <v>0.02341207367894439</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.3716119142330205</v>
+        <v>-0.02131388465995362</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.238370238438896</v>
+        <v>-0.005225553865665965</v>
       </c>
       <c r="C15" t="n">
-        <v>0.260175480790761</v>
+        <v>0.007270624132259934</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.264046503797822</v>
+        <v>-0.03625352340547929</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3259165299975353</v>
+        <v>-0.01064366328975433</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5310809301293402</v>
+        <v>0.008558753068032388</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.03510483127573347</v>
+        <v>-0.02540402729874076</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2923986199109453</v>
+        <v>0.01100221381563203</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3991871540961079</v>
+        <v>0.005378270172513961</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.08346278123233626</v>
+        <v>0.0394008085131645</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1424975973432492</v>
+        <v>-0.0215329993516206</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04679758806267567</v>
+        <v>-0.001527163083665</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.07242736803448724</v>
+        <v>-0.005351710416700385</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02474668281881699</v>
+        <v>-0.006526962327568362</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.03723622056777053</v>
+        <v>-0.02914889580468922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.03090181347468638</v>
+        <v>0.0001261571584187555</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04209658244381763</v>
+        <v>0.01954104799939229</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.06578089167242437</v>
+        <v>0.05001127266365517</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0216857157647609</v>
+        <v>0.1110513180737254</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08552113175392149</v>
+        <v>0.04867666449559752</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1296561509370803</v>
+        <v>-0.1655312067140687</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1914996167887811</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.03030422819859344</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.02057685541069637</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.1882859338884768</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0655750582480559</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4253946024438608</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.06060181622919789</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2589603908683945</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4051430983387903</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.2129994086597282</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3793273995751927</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01590242139671223</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.5540348317312142</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.6639242237028846</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.121634874006974</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.05442012457743672</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.6851783446643664</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.266947746276855</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-1.690450101442949</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1374446801517266</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.446953586910074</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.7898089613603607</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3619974125986522</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.304489494017943</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.258422552243524</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7682891954546356</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.810219791272407</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.04960623909921762</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7135171605193199</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.9448558195777682</v>
       </c>
     </row>
   </sheetData>
